--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/32_Eskişehir_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/32_Eskişehir_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{546E6A55-DF8D-4053-A211-866CDB600B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AA1609E-1F4E-49A5-8267-06E4E9A8A073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{B2021B16-8AE1-4F9A-962D-2752DD1F4E86}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{69320C68-213A-49AD-8D3D-2B8CC140063E}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -955,14 +955,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{4B734B7F-F08E-4D30-9C34-75DFC87A1804}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{0ABAA3AC-6CED-494B-B070-60EE0712A0CF}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{7A0F9D02-4865-48AD-8C58-9ABC9CDEE32E}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{CB97F210-1E2C-439F-967C-A62F6DEB72FA}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{F27735B4-9F2E-42E0-9EE1-BB26A36A2C8B}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{6EC76788-FCE1-4871-82D4-593AC178E02D}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{EF061EB5-1B10-4DCA-934C-6A179FC1E534}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{318D41EC-DDF0-41DC-AF5C-802C4ADC72F7}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{9DDD8309-5346-4CA1-9BEA-EEFA1DA11A33}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{8135BECA-7D0E-417A-B627-F6DA2A919956}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{8C5509DA-9476-489A-BD41-0AEBF001658B}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{21F88211-7F5A-4FDD-9ADF-68DDB87091FA}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{CA811F5E-B10C-4BD5-83B0-00FA2D666B60}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{B6453855-F2DB-45F5-8AE6-E53510302AB5}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{D08A79EC-4DA8-471B-84FC-95C736A433DA}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{206B3751-FAB2-42AB-8BEF-E62136C1BE0E}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1332,7 +1332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33630611-C215-4C09-A85E-240A2911F592}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ECEFABF-377D-43EF-AC05-857ABA904EE4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2619,18 +2619,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{610E5613-9272-4E04-A319-82C16703F0C5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{54C97242-E3AE-4A56-8CFF-2AAD7E76DEAA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{45CB1DD5-6077-40E6-8A5E-3BB5201A130E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E61F5786-719A-4647-B4D5-A0013AB731CE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{93DD6905-548E-403F-BAAB-DC658F79344D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7D3B66F6-C81E-4142-B368-EC7850A0DCAF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{02850E28-B806-4351-AA82-42126FDB80D9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{71CAC7D0-CBB3-4BB0-B85D-899F501D0A85}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E749BA68-E09A-47BD-9CF4-C653D49BABBB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EB0B07CF-4F44-4FEC-9793-9426087F2D38}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5D9B9CED-C0DA-4E09-8977-22B1979A2433}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{69B4735B-9696-456D-B306-91CB07426FDA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EB36346E-F27D-43CD-8D68-93DF75B7667B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{17B09FC3-C083-45FB-B392-8C7C9E0E37D2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FC8080E9-AB3A-40EF-875F-EAC60774EF1F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{885F9C9D-CCD3-4B14-B514-CE6018DEB69A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1F1073DE-D547-43E8-8522-8EE92D0E5156}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9C1EA768-CA5B-486E-9831-B11C5C8FDA71}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{20443297-8844-42EB-87BD-022819B8EFAF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{65F9CD74-CC1D-42AE-8FA6-EF556CC0EC3D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E5289090-ED00-4DE9-BD35-65751C54CEB9}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{44F10812-8E4D-4CE0-81FD-63A91FCEE7E0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10D6BC0E-B68D-4803-870D-03979AFEEB23}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3931BEDD-B085-4AF5-B00C-048DF4AA77FA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2643,7 +2643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AA98C9-716F-43CF-99BA-6CBBC3E43CAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBAB93F-B49C-4B68-8ED6-9D3824093E6F}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3906,18 +3906,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{550A42FD-A0D5-40B9-B3F1-D377CE08289E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C9729540-14A9-4CAC-A521-06E6D5D2BAD3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5D24459D-6A44-4E8B-9B1D-FD755933B436}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8A8B6F03-6FAA-4A0D-BD4B-43D0C9C16F38}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{751E6557-1471-43DD-B3B6-E59151CECEBE}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{53857C61-140E-4422-82D7-1737BE8AE413}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{305E904E-CF1F-4C68-9081-8C521B0D10ED}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{80729392-065F-4886-96FB-2C00F3138F12}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{12B1D91D-1860-46B4-89F8-A0C63C919031}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{CD52E0EC-4C99-4E14-A809-B45465832B5C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1BA6E243-3A63-4FB7-858C-9CF678CE5005}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{18D0EA3B-8D46-4C8E-B21D-408444C30691}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9100F250-BAAF-4168-8249-E6F372283258}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{235FBF75-9DB0-4817-9A0E-8F33CD5C6AA3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B017E96E-2A67-420C-BFE1-70BE9AF55F26}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{669F2652-4C8E-46E5-94F7-D25D604E9513}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F87AAF62-F727-4C02-B0E5-EB76595B5E95}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FE968B9B-9E6B-4D8E-858F-43E7F35CC55C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{90D3A615-8462-4098-8C03-6A93348A5E19}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{75860337-F60C-4AEA-B7EB-D097F62D80CC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A2012F6C-3216-4BD7-9C0B-4CA89F6CA17F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DFA79C32-0196-4206-B28B-963324DA1BB4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{21EA8DC0-5B0F-4489-8473-AE151459B93B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F7CDC27D-7A14-46C8-9BCF-04F106D09E50}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3930,7 +3930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6302AAC9-58F9-4F26-B093-6A8A76458F73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A174FF2E-13FC-4D2C-83B6-DE1F8FDF8AA7}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5189,18 +5189,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F3507FFF-BEDB-49CA-B460-278B61486E5F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{31E251CD-54DF-40F5-948D-0A64910440E2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DB29D963-458F-43DE-B260-769610AE7677}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D95FB28F-BEBD-4C4D-8335-3887E5D8F239}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6026AB8A-DC5F-40C6-9E77-11912CD21B75}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A715C6EA-5E0F-4B0A-B0CB-EFF31AB6A9B9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{54E401CE-1E12-48AE-8E88-81CF8EFFA4DD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{63AD8A57-CB09-49E3-A9D3-1931AD6BA694}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E5A2AA09-7A30-48D1-87C3-B126451691ED}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6B7B3414-EEC6-472E-9BDA-EA4E467604A3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4627D65F-CB39-4A1F-9698-6E28908CC4FC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{51335084-6DEE-40B1-B7E7-F4C7E47E0CC3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{87B0F0B1-101E-4ED5-9CE5-1DCD231C7B17}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{362155DB-874E-49B8-AACF-C50DDFED8048}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{95B558F8-FB13-4863-8172-B0895651A8EB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BB94167D-590D-4316-9372-D830FB09912C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1678A99D-BF06-4A67-AEA4-7B235FE742AF}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FE2E1C5C-FE51-4675-A5EA-FA55451DF5A8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F4DDFA3F-9CDB-405C-82DA-DD643282DD39}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA144B59-25EA-4C89-82C5-3785B136C018}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E1B3177A-59AC-45B5-9E43-C250DDBC58CC}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B9508638-558B-4B58-912B-9F73D05E09C0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DE3DB527-4B99-4503-B500-892108AEC8E1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E1DDB0EC-7AF1-4270-ACE1-E34231235715}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5213,7 +5213,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD9719D-78B8-47DF-8E5C-8F21C36DA61F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9F0318-F28A-4E69-BF1D-781076B3873B}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6467,18 +6467,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E21962DE-113D-453F-B37A-0E0C4B93CA47}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F1CB3F84-469E-48EF-A043-40384BF67A43}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0F83A6B0-5124-4C2B-92E3-AE9B2489C170}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1C342F68-A525-473B-9A9A-283828373A77}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E3749E3E-B41A-44CF-BF13-2446C590AD6B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0F6EC2E4-5F7E-44B2-896B-CA751BA3FBBA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{551AB714-1586-4AF1-8E51-EBA25F844700}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C874108A-3474-412A-9C25-51B14B86D7A9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{661A2801-485E-4519-A894-751D14642198}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FB050107-3428-4C53-AB6A-22A280B12810}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E266075A-D753-4C6F-9E5D-3EA3CAAFFEA4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3BAE9F43-C170-4A37-BD64-EF8AB43D8B91}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5AE9ED6C-6C5A-4C15-8266-1A0E622BAEEF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B29F9A3F-A9C5-4C02-9185-19050035CECB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F0ACFFF8-7B92-4F6F-98F0-E0774262752F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AF79368C-4994-49D1-980A-5296C5ED4B20}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7516CB4F-37ED-49A1-AE6D-CD5DCE1D0D61}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6CA8AA02-B4B6-4AC5-8AEA-AFF238BF8540}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0A44B8CF-39CF-449C-ABD0-69305F7979C3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C1908B23-63F1-4662-B00D-8F499ACB1767}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4E395DF7-EF3A-4B27-9FF1-B1C4CBB99950}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6B790C15-BCE9-4515-B769-C5E0237D7D9C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{48E230DE-19EC-47CD-8EDD-85115DD85FC7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3008FA66-C934-4B08-B185-AEACF7A1BAE0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6491,7 +6491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93438013-6343-45C9-84C8-FCE299A38D98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7D286F-F3FB-48DB-8123-3F8AF6F729E5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7778,18 +7778,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{14667B20-F3D8-4D60-8837-6A9FDA3B38DD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B9C123A1-162A-4DD0-BC65-E8B79E585051}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{06230481-55FB-4DCA-908A-E012C986352A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AD542DDE-0AF9-4FB5-8C49-E83C82B5EE90}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A42443BF-9BE7-49DC-A97F-398E3C89C0E3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CDEDE373-C8F3-4798-BBBA-39A6D948711D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{13989C63-C866-4CE6-BE33-0AFC413DF36D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AD350C1D-D225-44BB-8474-F6F28280AE4C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{19586CC3-F362-4D33-B105-A7E52C9AD8A9}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BEE0B8DD-2FBC-4DF2-B0AE-E570237DDEA3}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0C73C793-F853-4EB7-B490-517AD5F00E6D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6D1E47ED-B4A0-4736-93E9-C041559E1E5C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A837EA2-BBEE-4095-BD2B-66BE8A0F4C2A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{63A2626B-CB00-40F0-A72F-5EB137053114}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B23DD906-5DFF-405F-8B53-2F17D57DD3C4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{653E5F9A-168F-4C7E-B667-89C710CCDF99}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BDF54F50-A848-47B7-BF8F-62C30E7059A0}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{111A20F4-47F7-49EE-86B5-0B2CB2709585}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E2E26CBD-2C8C-409B-879F-C8B119C04BF0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BE5A5F77-E302-444E-8974-415ED2CE804F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A3EA7360-3D33-4155-8D07-2E87973B2EC4}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E0A4696A-B446-407F-A446-4B57CDA0F07E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D1FD1A54-DA48-4059-B57E-1673657A4853}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8BE58DD8-0568-4DA2-B504-DB7D62099C8B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7802,7 +7802,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{048C7597-A326-41F7-8397-E7751612E27C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983A12AD-FC9F-4371-9F5C-C22431AFB8B7}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9089,18 +9089,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B52EAF8D-EE3A-4153-B492-5549EFA5413D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{ACE6B8F8-83D8-4386-81B4-AA23334147ED}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D805134B-F438-4F6E-9E5C-8292DD231550}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4E6A249D-6E77-42A2-9577-0DB9B34A1648}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{641ECF6B-9F55-44A8-B0BC-D5D1CDFA4AF3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2046948E-CEAB-4B32-952E-CE1EBBEBF3E0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{21E981B2-BF88-4268-AC93-F55167E4DC82}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D856820-CC7C-4922-B5C4-3CCF13276C21}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{47D3A4D4-1CFE-4032-AF7A-B5DFAA548B5E}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DB87DF2C-523F-4484-96E7-FB48FD408541}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{95AA84BE-7BB6-43F0-B910-72838AA70602}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0695FF2E-D73A-47FA-AED0-36A8F4D01DB7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E5BE1416-C048-48B9-BB81-01D6B2AE55CE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57E31C2D-7514-4149-BEFF-8352DDA4FE87}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{09A8F8FB-C408-476E-8359-ABEC8EACCAD9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{73448686-3358-483A-BD99-91FB01303BEA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{18A6D621-BEFE-4E15-B563-08CE4BDE43CC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4FCAA542-0D51-405B-B8D4-8DC440CAE5C1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A936EFDA-1BBC-4483-84C1-36A2CBE2189A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{43A89AB3-3341-4C6B-8CDD-CF415BA7E201}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7E197A87-7068-47A6-9EDE-7653EDAC620A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{209FC67C-DD9F-4A82-B380-EA9FE22E1535}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E6AA28DD-823C-4B63-B8E6-BD6F66EA6EDE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F1636046-E050-4167-B3F5-DCF3BEB9EFEC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9113,7 +9113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F9159D-1E47-41B7-9906-4C782EA4914D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43C5D11B-AB5A-439C-B65B-1343D6ED9275}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10396,18 +10396,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6718F827-919D-46AC-94EB-F733DC40B8EC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{160780D4-EACE-46C7-9C77-905ECCB4783A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9DFC28E2-ED18-4919-883E-A2A1B30FAD5A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{19921DE9-7B78-46F5-9B9E-6500BD0905BE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7A242E22-0FC4-404D-ABC2-A6D04DE202D4}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4AB81E03-CAEC-43C0-B3FC-44100E99B97B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5F9AE959-FC4C-4DEC-B164-1E6E0E21F6E4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{20769C5F-B4BE-4773-A5AD-2AC8AC0347F0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CEBE40A6-7400-4D94-A583-9B24ACE0E277}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1793FF80-6C91-44B2-86FA-0EABD1C4C022}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{57888CC8-342C-4780-8069-1A6828F0BFEF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{95BE25D1-3E68-4DD2-8685-FFD537B62C21}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D6ABC067-1685-4908-8C20-ACE6B4A23134}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{33869EF9-5831-4039-BBEA-280B5311838E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{964490B6-106B-4F0B-BB92-2A197004D138}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{97060E4F-E0C4-4DE8-B462-F625891001C5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{97CDC513-3340-42EF-8916-FDC8DD331928}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EE37C1F6-F7CD-47B7-9894-0C6B53BC48B6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0CC80CEE-21E2-4C6E-A7B5-F4209A007045}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D3BDCB3E-18B8-4ECD-B723-4BD85DB94F9D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7DDCDB33-9690-4DBC-8394-B3E328505170}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4AB915E6-9467-47FA-9ABE-77613C101FEB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{03D67462-63B0-4BF8-A1B0-AD471F101634}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{22C29748-AA4C-4980-AFB8-55FAD39DE0A9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10420,7 +10420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5081AFAD-03B8-428F-B8CD-B47CA0321BB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BE321A7-D4A3-4EE2-AC5A-6E3E8C605A27}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11703,18 +11703,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{38536971-6238-43E5-AD56-9C76075255A7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{55E0D2CD-FA79-45B6-87DC-D47F98B3B642}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B81F02E7-CE08-466E-8119-776A6FB4B74B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{ED71A440-49C8-4C1F-823D-AFC93AC4248C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{62196363-A151-4F16-A982-56D25D60C3EE}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{2E2BA30A-1721-4605-91E5-E14FE4BD48D1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CEB1392B-6CF6-4216-A7AE-23846E579DE0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{426363CD-31F1-4388-A13F-D2ED31CDBBB4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{448E412A-50D9-4DA4-8555-B777DEC2552C}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{831D56DA-25F1-4126-A069-E64CE8962660}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D9C23053-8F60-4E4E-8C86-469F4DD2014F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B6DA7E2A-2B2A-4573-B0ED-88D111D1A67F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{266345A1-0A5B-4EA7-BE91-3EA891F77D06}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D55A8A57-CE81-4D6B-B064-AFABB05913F9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3FD14B31-18A8-41B3-9942-13E342672DA0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{391330E0-EBA6-4863-9B1D-26D8B054D1A2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8E1F6156-CAC7-46F7-ADB7-C3DACA0E7010}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{785D3D1E-CCFD-4F87-93BE-2FC0E1795627}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B7DD8A07-F931-4B0C-9681-192239BCB629}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6CFF1F14-9211-4D6D-8171-2DB00F2782C8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3B87C0EE-76EF-4582-825E-54E259C51320}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0894A8F2-7161-49E2-A828-2E3670CFD9A1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{77DB7F07-0163-490D-97E7-E85F36945764}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{48AE0465-A692-47C1-A56C-370FD64E934B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11727,7 +11727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68D1444D-8C48-4308-BC62-89C0EB23DC9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22855993-3AED-4896-BB96-24F83B23A0FF}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13002,18 +13002,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{179CECA3-66D2-4F4F-806B-35BD9CC72EE6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8A154098-59FB-4BD6-8D51-A31449E08EFE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{31EBE54E-5E69-4D6B-8727-ADB9CE60106E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{96BC0C59-4C0E-4575-95F1-C6CEAFE14BE9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A5EC4A8B-D6DA-4BD2-A8DF-038605870B70}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3540D5A7-6991-4FFF-8FAD-5DFED808A791}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{11DC03CE-6313-40E2-96C1-5EDC28F2087A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{316348F7-93AB-4341-9ACA-53D496430A62}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{25614CAF-9815-4387-9C3E-E1B415DFB9FB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0DBD01F5-76CB-475F-8342-ED936AC580CA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1C3EFFF6-396F-40AA-AD0C-6C7D4799E3AE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6AF6A419-7F0F-4151-AED7-9FED25765B81}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{868531A4-6348-4B61-ADFB-D278C7D9F9D3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB1670AD-5876-4B7F-AB02-71BB66587C49}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BC531E95-AB2C-4FDE-A97A-9911FFDF6FFD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A7BFDD29-BAEE-4122-8F65-9F32B1962EC0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BA78CFEC-0110-441B-81AC-9C1BE698F56C}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{09AEACFF-62ED-46CF-ACC2-FD26120E40E4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7C6843E6-3530-431C-89CA-CBD00923ABF8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D00B200E-E622-4EA1-9770-DB5EF516524F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{00AA1933-C4DE-4B32-B600-A8BD3FB7D6E1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A6A7E4CE-5E18-496C-94A0-9B7306C93B58}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{81E61BE9-D5AA-4BF8-A02B-7B26F3EE46E5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{37E96315-CF46-44CD-8CD1-79DD368F03DF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13026,7 +13026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEA2F62-2649-4277-BE62-FE4D7F7D918E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FE5170-9DE4-4053-B5F3-71BC909DE843}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14293,18 +14293,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CADBF55B-C4A6-445B-920F-D1D5C6EBAF9A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07090C99-63F6-48DB-87D1-8E8B24B1FAF4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8BDF0F81-C808-4F36-B8FA-4D0DFDB99793}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BD32BCB6-735A-43C8-8B3A-1261F140CBD1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{92A61CD2-E746-4CC8-9421-578485B40141}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DE25B34B-7990-4B83-878D-7EA861228A95}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0486E4C7-B3FA-4D83-8E56-635A294BBE30}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0F281BE6-613B-42DC-8331-E861EA1C7BB1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7F14AF90-013B-4E06-9BAD-A74D73A3DFCA}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F3AD5539-40A2-48C2-9553-BBF6DDE55AB4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AF51F540-93A6-4CDF-B290-E9C4D120A2EC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3BAC9FE2-5A1F-495A-9424-A3DBC68F3780}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D865225B-E0DF-4978-BB2F-D9C44570705A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3BBB7AE9-AEED-4747-831C-0B8681D0C0CF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B09B398B-4298-4C1F-9D4A-9EE5702C5189}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{180C1CFF-A96D-4F22-BDF7-2425E9866AF6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BBF7E662-6D36-42C9-82FB-0CDFF6294848}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{67C964DD-85B3-4A31-80A9-2619E1E366F3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ED5FDD86-A991-4EAE-A421-23B69AA1FE6E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E5E46BA7-CDAF-4109-AC11-F11233B30042}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{16D79E84-090D-4F23-9A6E-9A43E56AFB3A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{773B3E7C-1008-46A0-B469-4DC32EAE2E6A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{26B230BB-262D-43D8-8804-3728B06CDD68}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EF6A7A31-C3F4-4A53-A598-2E94FBBAB1FB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14317,7 +14317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA2177D-3E1D-45C9-A727-010F0CBFE5D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79CCB7B-2A02-48B4-8F40-262869F4D0BF}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15584,18 +15584,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BB08355A-06B0-4FA9-BBF0-80C5811A3480}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F1B8E289-14CE-4E78-ADB7-0799A7782019}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C133981B-56D3-4924-917F-60F7DC2D7CB9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F5E7E638-3E5A-4C02-B15D-32968EF36FA0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8A3B7C99-B4BB-403F-B5C2-02A8ED74A7B5}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B461CB02-DD19-412F-AEE7-9D665A6A34E1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E23250C4-FD31-4091-A28A-A9D2539AFACA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{83A1057B-F6A0-47F7-878D-7D4BE3095920}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B0A880EB-FE37-441B-959D-D5368D37F816}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{93F97451-8300-4D76-80DD-067988703B0B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3680C3F3-F22D-4743-9E61-BBA30C10FFAA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{388D01F7-E425-4D18-BFF7-5D6B2024223F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5133DAD8-710D-424D-8A2D-31749177772B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B7CAA7F9-7E9F-4BCE-9964-F57EC7242286}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F1B8951C-F45D-4D18-B763-1040A823AB65}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F45792DD-DCA0-4949-B97A-B4A1FED273B8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D02E2C87-302A-46F4-A3B2-3FBE20C57DFE}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C20693BC-BB1D-44CF-9267-A6EE56DC60B1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{160C8827-D0E6-414C-9EAE-0ABFE54FC7FB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D92967C2-AF92-4043-B744-61D95CDE341E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ABD7939E-7AFF-418C-9564-8018E827FF28}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{BA6631C5-A40C-4B53-9609-8BAB0A4D8FB4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7DCD1A4D-CBAB-433F-8BB4-CAB9957CE57D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3A458CE6-0B33-4561-A541-2F292E996DAF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15608,7 +15608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF1F474-841D-4206-AA29-B316234B27D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D16D89-23C6-4C3B-B76F-B8BD4A7B7DC3}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16875,18 +16875,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1764887E-DF6C-458B-B1E7-2C2670E38DD7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CBB71118-9D23-4CD7-B5BD-A504970AE8E9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{09071F6D-D12E-4218-A688-279A5AFB03DC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E8B89DA5-17BF-46E0-B20A-7B161F3ADC76}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{731C069F-E3CE-44C6-973B-49A58043650D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{62437A1C-1591-4261-B4B0-C87AA12CFC55}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E26FC029-819F-44EB-A755-4D830771F151}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{58C456CA-5AEC-4998-BB98-F2928126D7BE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DF417964-8220-40F3-9DB4-3369F27E7022}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{281F8F6F-EA0F-4783-AA79-DE90611D4332}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{910940CB-6C73-401D-A5DA-06FC392FD0ED}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DB4E77FF-CFAE-4C71-A51E-C89B61165823}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB6C1C1C-6EDB-44C5-993D-F8C56B352D64}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AB17C59B-A9EA-4CE2-8F8F-4884BA3239B4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9D8B635D-9AC5-45E3-A74B-8B5B5F0F4CA9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B5DFE6DD-F53E-4003-B240-19BE8501B848}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F98C8357-13B9-48AE-9710-5278C4BE4130}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B1989594-21E4-40B5-8BA6-B1E2E4012973}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{24F49388-9C4D-4C6A-A2BE-B7248484A951}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5B445612-7B88-40B7-858D-AC6F55A97DCE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B4C8BA70-C3EC-4430-BC00-6C730C3E5614}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{AEB57862-D755-473C-AB25-836E97A259D5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{26B62C87-B714-4884-BDFA-9D7528C587C2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4DA72363-D942-48C6-9AA2-A9CF6428182F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
